--- a/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-facil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-facil.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1224">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>42.399 (296)</t>
   </si>
   <si>
-    <t>10.858 (296)</t>
+    <t>10.855 (296)</t>
   </si>
   <si>
     <t>11.155 (296)</t>
@@ -175,7 +175,7 @@
     <t>44.646 (192)</t>
   </si>
   <si>
-    <t>10.375 (192)</t>
+    <t>10.38 (192)</t>
   </si>
   <si>
     <t>10.167 (192)</t>
@@ -817,9 +817,6 @@
     <t>41.762 (256)</t>
   </si>
   <si>
-    <t>10.691 (256)</t>
-  </si>
-  <si>
     <t>10.688 (256)</t>
   </si>
   <si>
@@ -868,7 +865,7 @@
     <t>48.92 (88)</t>
   </si>
   <si>
-    <t>9.841 (88)</t>
+    <t>9.852 (88)</t>
   </si>
   <si>
     <t>9.523 (88)</t>
@@ -967,7 +964,7 @@
     <t>41.889 (244)</t>
   </si>
   <si>
-    <t>10.906 (244)</t>
+    <t>10.902 (244)</t>
   </si>
   <si>
     <t>11.295 (244)</t>
@@ -1021,7 +1018,7 @@
     <t>44.356 (222)</t>
   </si>
   <si>
-    <t>10.365 (222)</t>
+    <t>10.369 (222)</t>
   </si>
   <si>
     <t>10.27 (222)</t>
@@ -1177,7 +1174,7 @@
     <t>42.894 (179)</t>
   </si>
   <si>
-    <t>10.966 (179)</t>
+    <t>10.961 (179)</t>
   </si>
   <si>
     <t>11.162 (179)</t>
@@ -1231,9 +1228,6 @@
     <t>42.949 (254)</t>
   </si>
   <si>
-    <t>10.559 (254)</t>
-  </si>
-  <si>
     <t>10.563 (254)</t>
   </si>
   <si>
@@ -1444,7 +1438,7 @@
     <t>43.35 (260)</t>
   </si>
   <si>
-    <t>10.669 (260)</t>
+    <t>10.665 (260)</t>
   </si>
   <si>
     <t>10.577 (260)</t>
@@ -1498,9 +1492,6 @@
     <t>44.404 (99)</t>
   </si>
   <si>
-    <t>10.04 (99)</t>
-  </si>
-  <si>
     <t>10.051 (99)</t>
   </si>
   <si>
@@ -1654,7 +1645,7 @@
     <t>42.22 (259)</t>
   </si>
   <si>
-    <t>10.606 (259)</t>
+    <t>10.598 (259)</t>
   </si>
   <si>
     <t>10.726 (259)</t>
@@ -1708,7 +1699,7 @@
     <t>44.801 (136)</t>
   </si>
   <si>
-    <t>10.721 (136)</t>
+    <t>10.735 (136)</t>
   </si>
   <si>
     <t>10.426 (136)</t>
@@ -1816,7 +1807,7 @@
     <t>41.667 (198)</t>
   </si>
   <si>
-    <t>11.167 (198)</t>
+    <t>11.162 (198)</t>
   </si>
   <si>
     <t>11.187 (198)</t>
@@ -1921,7 +1912,7 @@
     <t>49.952 (63)</t>
   </si>
   <si>
-    <t>9.143 (63)</t>
+    <t>9.159 (63)</t>
   </si>
   <si>
     <t>8.714 (63)</t>
@@ -2023,7 +2014,7 @@
     <t>41.594 (133)</t>
   </si>
   <si>
-    <t>11.353 (133)</t>
+    <t>11.346 (133)</t>
   </si>
   <si>
     <t>10.97 (133)</t>
@@ -2125,7 +2116,7 @@
     <t>45.99 (101)</t>
   </si>
   <si>
-    <t>9.386 (101)</t>
+    <t>9.396 (101)</t>
   </si>
   <si>
     <t>9.624 (101)</t>
@@ -2230,7 +2221,7 @@
     <t>40.533 (92)</t>
   </si>
   <si>
-    <t>11.88 (92)</t>
+    <t>11.87 (92)</t>
   </si>
   <si>
     <t>11.978 (92)</t>
@@ -2284,7 +2275,7 @@
     <t>44.138 (240)</t>
   </si>
   <si>
-    <t>10.483 (240)</t>
+    <t>10.492 (240)</t>
   </si>
   <si>
     <t>10.679 (240)</t>
@@ -2338,7 +2329,7 @@
     <t>42.888 (134)</t>
   </si>
   <si>
-    <t>10.403 (134)</t>
+    <t>10.388 (134)</t>
   </si>
   <si>
     <t>10.463 (134)</t>
@@ -2392,7 +2383,7 @@
     <t>49.543 (35)</t>
   </si>
   <si>
-    <t>8.8 (35)</t>
+    <t>8.829 (35)</t>
   </si>
   <si>
     <t>8.657 (35)</t>
@@ -2491,7 +2482,7 @@
     <t>40.145 (55)</t>
   </si>
   <si>
-    <t>12.055 (55)</t>
+    <t>12.036 (55)</t>
   </si>
   <si>
     <t>12.091 (55)</t>
@@ -2599,7 +2590,7 @@
     <t>42.746 (185)</t>
   </si>
   <si>
-    <t>10.681 (185)</t>
+    <t>10.686 (185)</t>
   </si>
   <si>
     <t>10.978 (185)</t>
@@ -2761,7 +2752,7 @@
     <t>41.062 (160)</t>
   </si>
   <si>
-    <t>10.938 (160)</t>
+    <t>10.919 (160)</t>
   </si>
   <si>
     <t>11.144 (160)</t>
@@ -2815,7 +2806,7 @@
     <t>43.656 (244)</t>
   </si>
   <si>
-    <t>10.652 (244)</t>
+    <t>10.664 (244)</t>
   </si>
   <si>
     <t>10.742 (244)</t>
@@ -2869,7 +2860,7 @@
     <t>46.234 (94)</t>
   </si>
   <si>
-    <t>9.883 (94)</t>
+    <t>9.872 (94)</t>
   </si>
   <si>
     <t>9.904 (94)</t>
@@ -2923,7 +2914,7 @@
     <t>58.5 (6)</t>
   </si>
   <si>
-    <t>9.667 (6)</t>
+    <t>9.833 (6)</t>
   </si>
   <si>
     <t>10.833 (6)</t>
@@ -2977,7 +2968,7 @@
     <t>42.165 (97)</t>
   </si>
   <si>
-    <t>11.113 (97)</t>
+    <t>11.103 (97)</t>
   </si>
   <si>
     <t>10.948 (97)</t>
@@ -3031,7 +3022,7 @@
     <t>43.107 (243)</t>
   </si>
   <si>
-    <t>10.617 (243)</t>
+    <t>10.613 (243)</t>
   </si>
   <si>
     <t>10.658 (243)</t>
@@ -3085,7 +3076,7 @@
     <t>44.533 (135)</t>
   </si>
   <si>
-    <t>10.444 (135)</t>
+    <t>10.452 (135)</t>
   </si>
   <si>
     <t>10.711 (135)</t>
@@ -3139,7 +3130,7 @@
     <t>46.276 (29)</t>
   </si>
   <si>
-    <t>9.241 (29)</t>
+    <t>9.276 (29)</t>
   </si>
   <si>
     <t>10.414 (29)</t>
@@ -3193,7 +3184,7 @@
     <t>41.825 (63)</t>
   </si>
   <si>
-    <t>11.81 (63)</t>
+    <t>11.794 (63)</t>
   </si>
   <si>
     <t>12.302 (63)</t>
@@ -3247,7 +3238,7 @@
     <t>43.652 (207)</t>
   </si>
   <si>
-    <t>10.415 (207)</t>
+    <t>10.42 (207)</t>
   </si>
   <si>
     <t>10.531 (207)</t>
@@ -3301,7 +3292,7 @@
     <t>42.862 (167)</t>
   </si>
   <si>
-    <t>10.886 (167)</t>
+    <t>10.874 (167)</t>
   </si>
   <si>
     <t>10.743 (167)</t>
@@ -3355,7 +3346,7 @@
     <t>43.627 (59)</t>
   </si>
   <si>
-    <t>9.288 (59)</t>
+    <t>9.305 (59)</t>
   </si>
   <si>
     <t>9.932 (59)</t>
@@ -3409,7 +3400,7 @@
     <t>64.5 (8)</t>
   </si>
   <si>
-    <t>8.75 (8)</t>
+    <t>8.875 (8)</t>
   </si>
   <si>
     <t>8.125 (8)</t>
@@ -3463,7 +3454,7 @@
     <t>42.171 (41)</t>
   </si>
   <si>
-    <t>11.659 (41)</t>
+    <t>11.634 (41)</t>
   </si>
   <si>
     <t>12.268 (41)</t>
@@ -3517,7 +3508,7 @@
     <t>43.281 (153)</t>
   </si>
   <si>
-    <t>10.471 (153)</t>
+    <t>10.464 (153)</t>
   </si>
   <si>
     <t>10.784 (153)</t>
@@ -3571,7 +3562,7 @@
     <t>43.172 (203)</t>
   </si>
   <si>
-    <t>10.783 (203)</t>
+    <t>10.788 (203)</t>
   </si>
   <si>
     <t>10.527 (203)</t>
@@ -3679,7 +3670,7 @@
     <t>59.2 (20)</t>
   </si>
   <si>
-    <t>6.95 (20)</t>
+    <t>7.0 (20)</t>
   </si>
   <si>
     <t>7.75 (20)</t>
@@ -4143,10 +4134,10 @@
         <v>3.433</v>
       </c>
       <c r="I2">
-        <v>1.223</v>
+        <v>1.152</v>
       </c>
       <c r="J2">
-        <v>0.222</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4175,10 +4166,10 @@
         <v>4.616</v>
       </c>
       <c r="I3">
-        <v>1.729</v>
+        <v>1.604</v>
       </c>
       <c r="J3">
-        <v>0.08500000000000001</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4207,7 +4198,7 @@
         <v>6.05</v>
       </c>
       <c r="I4">
-        <v>1.636</v>
+        <v>1.637</v>
       </c>
       <c r="J4">
         <v>0.102</v>
@@ -4239,10 +4230,10 @@
         <v>2.383</v>
       </c>
       <c r="I5">
-        <v>0.644</v>
+        <v>0.733</v>
       </c>
       <c r="J5">
-        <v>0.52</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4271,10 +4262,10 @@
         <v>0.587</v>
       </c>
       <c r="I6">
-        <v>0.155</v>
+        <v>0.158</v>
       </c>
       <c r="J6">
-        <v>0.877</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4303,10 +4294,10 @@
         <v>4.775</v>
       </c>
       <c r="I7">
-        <v>1.256</v>
+        <v>1.29</v>
       </c>
       <c r="J7">
-        <v>0.21</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4332,13 +4323,13 @@
         <v>0.035</v>
       </c>
       <c r="H8">
-        <v>-1.38</v>
+        <v>-1.354</v>
       </c>
       <c r="I8">
-        <v>-1.263</v>
+        <v>-1.317</v>
       </c>
       <c r="J8">
-        <v>0.207</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4367,10 +4358,10 @@
         <v>-2.017</v>
       </c>
       <c r="I9">
-        <v>-1.784</v>
+        <v>-2.133</v>
       </c>
       <c r="J9">
-        <v>0.075</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4399,10 +4390,10 @@
         <v>-2.469</v>
       </c>
       <c r="I10">
-        <v>-1.888</v>
+        <v>-1.984</v>
       </c>
       <c r="J10">
-        <v>0.06</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4431,10 +4422,10 @@
         <v>-1.778</v>
       </c>
       <c r="I11">
-        <v>-1.368</v>
+        <v>-1.449</v>
       </c>
       <c r="J11">
-        <v>0.172</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4463,10 +4454,10 @@
         <v>-0.059</v>
       </c>
       <c r="I12">
-        <v>-0.044</v>
+        <v>-0.043</v>
       </c>
       <c r="J12">
-        <v>0.965</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4495,10 +4486,10 @@
         <v>-1.905</v>
       </c>
       <c r="I13">
-        <v>-1.433</v>
+        <v>-1.447</v>
       </c>
       <c r="J13">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4527,10 +4518,10 @@
         <v>0.016</v>
       </c>
       <c r="I14">
-        <v>0.743</v>
+        <v>0.751</v>
       </c>
       <c r="J14">
-        <v>0.458</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4559,10 +4550,10 @@
         <v>0.025</v>
       </c>
       <c r="I15">
-        <v>1.163</v>
+        <v>1.138</v>
       </c>
       <c r="J15">
-        <v>0.245</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4591,10 +4582,10 @@
         <v>0.005</v>
       </c>
       <c r="I16">
-        <v>0.23</v>
+        <v>0.254</v>
       </c>
       <c r="J16">
-        <v>0.8179999999999999</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4623,10 +4614,10 @@
         <v>0.036</v>
       </c>
       <c r="I17">
-        <v>1.593</v>
+        <v>2.162</v>
       </c>
       <c r="J17">
-        <v>0.112</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4655,10 +4646,10 @@
         <v>0.015</v>
       </c>
       <c r="I18">
-        <v>0.647</v>
+        <v>0.748</v>
       </c>
       <c r="J18">
-        <v>0.518</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4687,10 +4678,10 @@
         <v>0.017</v>
       </c>
       <c r="I19">
-        <v>0.733</v>
+        <v>0.675</v>
       </c>
       <c r="J19">
-        <v>0.464</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4755,16 +4746,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F2">
         <v>504</v>
@@ -4776,10 +4767,10 @@
         <v>4.311</v>
       </c>
       <c r="I2">
-        <v>1.58</v>
+        <v>1.565</v>
       </c>
       <c r="J2">
-        <v>0.115</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4787,16 +4778,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F3">
         <v>504</v>
@@ -4808,10 +4799,10 @@
         <v>1.518</v>
       </c>
       <c r="I3">
-        <v>0.583</v>
+        <v>0.708</v>
       </c>
       <c r="J3">
-        <v>0.5600000000000001</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4819,16 +4810,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F4">
         <v>504</v>
@@ -4840,10 +4831,10 @@
         <v>2.983</v>
       </c>
       <c r="I4">
-        <v>0.828</v>
+        <v>1.174</v>
       </c>
       <c r="J4">
-        <v>0.408</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4851,16 +4842,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F5">
         <v>504</v>
@@ -4872,10 +4863,10 @@
         <v>-1.489</v>
       </c>
       <c r="I5">
-        <v>-0.414</v>
+        <v>-0.419</v>
       </c>
       <c r="J5">
-        <v>0.679</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4883,16 +4874,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C6" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E6" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F6">
         <v>504</v>
@@ -4904,10 +4895,10 @@
         <v>-4.308</v>
       </c>
       <c r="I6">
-        <v>-1.169</v>
+        <v>-1.284</v>
       </c>
       <c r="J6">
-        <v>0.243</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4915,16 +4906,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F7">
         <v>504</v>
@@ -4936,10 +4927,10 @@
         <v>2.423</v>
       </c>
       <c r="I7">
-        <v>0.654</v>
+        <v>0.603</v>
       </c>
       <c r="J7">
-        <v>0.513</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4947,16 +4938,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D8" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E8" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F8">
         <v>504</v>
@@ -4965,13 +4956,13 @@
         <v>0.036</v>
       </c>
       <c r="H8">
-        <v>-2.313</v>
+        <v>-2.286</v>
       </c>
       <c r="I8">
-        <v>-2.184</v>
+        <v>-2.211</v>
       </c>
       <c r="J8">
-        <v>0.029</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4979,16 +4970,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D9" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F9">
         <v>504</v>
@@ -5000,10 +4991,10 @@
         <v>-0.521</v>
       </c>
       <c r="I9">
-        <v>-0.472</v>
+        <v>-0.639</v>
       </c>
       <c r="J9">
-        <v>0.637</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5011,16 +5002,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D10" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E10" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F10">
         <v>504</v>
@@ -5032,10 +5023,10 @@
         <v>-1.221</v>
       </c>
       <c r="I10">
-        <v>-0.957</v>
+        <v>-1.284</v>
       </c>
       <c r="J10">
-        <v>0.339</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5043,16 +5034,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E11" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F11">
         <v>504</v>
@@ -5064,10 +5055,10 @@
         <v>-0.422</v>
       </c>
       <c r="I11">
-        <v>-0.333</v>
+        <v>-0.331</v>
       </c>
       <c r="J11">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5075,16 +5066,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D12" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E12" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F12">
         <v>504</v>
@@ -5096,10 +5087,10 @@
         <v>1.45</v>
       </c>
       <c r="I12">
-        <v>1.115</v>
+        <v>1.232</v>
       </c>
       <c r="J12">
-        <v>0.266</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5107,16 +5098,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C13" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D13" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E13" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F13">
         <v>504</v>
@@ -5128,10 +5119,10 @@
         <v>-0.983</v>
       </c>
       <c r="I13">
-        <v>-0.759</v>
+        <v>-0.721</v>
       </c>
       <c r="J13">
-        <v>0.449</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5139,16 +5130,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C14" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D14" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E14" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F14">
         <v>504</v>
@@ -5160,10 +5151,10 @@
         <v>0.004</v>
       </c>
       <c r="I14">
-        <v>0.191</v>
+        <v>0.223</v>
       </c>
       <c r="J14">
-        <v>0.848</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5171,16 +5162,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D15" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E15" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F15">
         <v>504</v>
@@ -5192,10 +5183,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I15">
-        <v>0.462</v>
+        <v>0.413</v>
       </c>
       <c r="J15">
-        <v>0.644</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5203,16 +5194,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C16" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D16" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E16" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F16">
         <v>504</v>
@@ -5224,10 +5215,10 @@
         <v>-0.024</v>
       </c>
       <c r="I16">
-        <v>-1.117</v>
+        <v>-1.051</v>
       </c>
       <c r="J16">
-        <v>0.265</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5235,16 +5226,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C17" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D17" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F17">
         <v>504</v>
@@ -5256,10 +5247,10 @@
         <v>0.062</v>
       </c>
       <c r="I17">
-        <v>2.861</v>
+        <v>2.761</v>
       </c>
       <c r="J17">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5267,16 +5258,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E18" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F18">
         <v>504</v>
@@ -5288,10 +5279,10 @@
         <v>0.025</v>
       </c>
       <c r="I18">
-        <v>1.136</v>
+        <v>1.535</v>
       </c>
       <c r="J18">
-        <v>0.257</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5299,16 +5290,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C19" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D19" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E19" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F19">
         <v>504</v>
@@ -5320,10 +5311,10 @@
         <v>0.03</v>
       </c>
       <c r="I19">
-        <v>1.329</v>
+        <v>1.311</v>
       </c>
       <c r="J19">
-        <v>0.184</v>
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
@@ -5392,16 +5383,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F2" t="s">
         <v>223</v>
@@ -5416,10 +5407,10 @@
         <v>6.644</v>
       </c>
       <c r="J2">
-        <v>2.196</v>
+        <v>2.211</v>
       </c>
       <c r="K2">
-        <v>0.029</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5427,19 +5418,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G3">
         <v>504</v>
@@ -5451,10 +5442,10 @@
         <v>5.287</v>
       </c>
       <c r="J3">
-        <v>1.831</v>
+        <v>2.07</v>
       </c>
       <c r="K3">
-        <v>0.068</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5462,19 +5453,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E4" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G4">
         <v>504</v>
@@ -5486,10 +5477,10 @@
         <v>6.756</v>
       </c>
       <c r="J4">
-        <v>1.69</v>
+        <v>2.433</v>
       </c>
       <c r="K4">
-        <v>0.092</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5497,19 +5488,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D5" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G5">
         <v>504</v>
@@ -5521,10 +5512,10 @@
         <v>1.864</v>
       </c>
       <c r="J5">
-        <v>0.466</v>
+        <v>0.622</v>
       </c>
       <c r="K5">
-        <v>0.642</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5532,19 +5523,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D6" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E6" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F6" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G6">
         <v>504</v>
@@ -5556,10 +5547,10 @@
         <v>-3.921</v>
       </c>
       <c r="J6">
-        <v>-0.957</v>
+        <v>-1.057</v>
       </c>
       <c r="K6">
-        <v>0.339</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5567,19 +5558,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F7" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G7">
         <v>504</v>
@@ -5591,10 +5582,10 @@
         <v>2.546</v>
       </c>
       <c r="J7">
-        <v>0.618</v>
+        <v>0.584</v>
       </c>
       <c r="K7">
-        <v>0.537</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5602,19 +5593,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C8" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D8" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E8" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F8" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G8">
         <v>504</v>
@@ -5623,13 +5614,13 @@
         <v>0.029</v>
       </c>
       <c r="I8">
-        <v>-2.707</v>
+        <v>-2.691</v>
       </c>
       <c r="J8">
-        <v>-2.3</v>
+        <v>-2.366</v>
       </c>
       <c r="K8">
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5637,16 +5628,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C9" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D9" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E9" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F9" t="s">
         <v>229</v>
@@ -5661,10 +5652,10 @@
         <v>-2.541</v>
       </c>
       <c r="J9">
-        <v>-2.08</v>
+        <v>-2.398</v>
       </c>
       <c r="K9">
-        <v>0.038</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5672,19 +5663,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C10" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D10" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E10" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F10" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G10">
         <v>504</v>
@@ -5696,10 +5687,10 @@
         <v>-2.931</v>
       </c>
       <c r="J10">
-        <v>-2.073</v>
+        <v>-2.883</v>
       </c>
       <c r="K10">
-        <v>0.039</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5707,19 +5698,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D11" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E11" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F11" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G11">
         <v>504</v>
@@ -5731,10 +5722,10 @@
         <v>-1.466</v>
       </c>
       <c r="J11">
-        <v>-1.042</v>
+        <v>-1.49</v>
       </c>
       <c r="K11">
-        <v>0.298</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5742,19 +5733,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C12" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D12" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E12" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F12" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G12">
         <v>504</v>
@@ -5766,10 +5757,10 @@
         <v>1.077</v>
       </c>
       <c r="J12">
-        <v>0.744</v>
+        <v>0.723</v>
       </c>
       <c r="K12">
-        <v>0.457</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5777,19 +5768,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C13" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D13" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E13" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F13" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G13">
         <v>504</v>
@@ -5801,10 +5792,10 @@
         <v>-0.73</v>
       </c>
       <c r="J13">
-        <v>-0.507</v>
+        <v>-0.495</v>
       </c>
       <c r="K13">
-        <v>0.613</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5812,19 +5803,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C14" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D14" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E14" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F14" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G14">
         <v>504</v>
@@ -5836,10 +5827,10 @@
         <v>0.012</v>
       </c>
       <c r="J14">
-        <v>0.519</v>
+        <v>0.523</v>
       </c>
       <c r="K14">
-        <v>0.604</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5847,19 +5838,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C15" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D15" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E15" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F15" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G15">
         <v>504</v>
@@ -5871,10 +5862,10 @@
         <v>0.019</v>
       </c>
       <c r="J15">
-        <v>0.8120000000000001</v>
+        <v>0.957</v>
       </c>
       <c r="K15">
-        <v>0.417</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5882,19 +5873,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C16" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D16" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E16" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F16" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G16">
         <v>504</v>
@@ -5906,10 +5897,10 @@
         <v>-0.019</v>
       </c>
       <c r="J16">
-        <v>-0.783</v>
+        <v>-0.774</v>
       </c>
       <c r="K16">
-        <v>0.434</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5917,19 +5908,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C17" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D17" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E17" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F17" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G17">
         <v>504</v>
@@ -5941,10 +5932,10 @@
         <v>0.059</v>
       </c>
       <c r="J17">
-        <v>2.464</v>
+        <v>2.587</v>
       </c>
       <c r="K17">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5952,19 +5943,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C18" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D18" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E18" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G18">
         <v>504</v>
@@ -5976,10 +5967,10 @@
         <v>0.026</v>
       </c>
       <c r="J18">
-        <v>1.052</v>
+        <v>1.376</v>
       </c>
       <c r="K18">
-        <v>0.293</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5987,19 +5978,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C19" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D19" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E19" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F19" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G19">
         <v>504</v>
@@ -6011,10 +6002,10 @@
         <v>0.025</v>
       </c>
       <c r="J19">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="K19">
-        <v>0.313</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -6083,19 +6074,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D2" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G2">
         <v>504</v>
@@ -6107,10 +6098,10 @@
         <v>6.596</v>
       </c>
       <c r="J2">
-        <v>1.841</v>
+        <v>1.79</v>
       </c>
       <c r="K2">
-        <v>0.066</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6118,19 +6109,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="G3">
         <v>504</v>
@@ -6142,10 +6133,10 @@
         <v>4.284</v>
       </c>
       <c r="J3">
-        <v>1.252</v>
+        <v>1.596</v>
       </c>
       <c r="K3">
-        <v>0.211</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -6153,19 +6144,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D4" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E4" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F4" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G4">
         <v>504</v>
@@ -6177,10 +6168,10 @@
         <v>8.243</v>
       </c>
       <c r="J4">
-        <v>1.744</v>
+        <v>2.662</v>
       </c>
       <c r="K4">
-        <v>0.082</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6188,19 +6179,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="G5">
         <v>504</v>
@@ -6212,10 +6203,10 @@
         <v>1.367</v>
       </c>
       <c r="J5">
-        <v>0.289</v>
+        <v>0.306</v>
       </c>
       <c r="K5">
-        <v>0.773</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6223,19 +6214,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C6" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D6" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E6" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F6" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G6">
         <v>504</v>
@@ -6247,10 +6238,10 @@
         <v>-6.674</v>
       </c>
       <c r="J6">
-        <v>-1.378</v>
+        <v>-1.412</v>
       </c>
       <c r="K6">
-        <v>0.169</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6258,19 +6249,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C7" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D7" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E7" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G7">
         <v>504</v>
@@ -6282,10 +6273,10 @@
         <v>5.109</v>
       </c>
       <c r="J7">
-        <v>1.05</v>
+        <v>0.929</v>
       </c>
       <c r="K7">
-        <v>0.294</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6293,19 +6284,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C8" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D8" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E8" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="G8">
         <v>504</v>
@@ -6314,13 +6305,13 @@
         <v>0.021</v>
       </c>
       <c r="I8">
-        <v>-2.582</v>
+        <v>-2.53</v>
       </c>
       <c r="J8">
-        <v>-1.852</v>
+        <v>-1.782</v>
       </c>
       <c r="K8">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6328,19 +6319,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C9" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D9" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="F9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="G9">
         <v>504</v>
@@ -6352,10 +6343,10 @@
         <v>-2.594</v>
       </c>
       <c r="J9">
-        <v>-1.794</v>
+        <v>-2.375</v>
       </c>
       <c r="K9">
-        <v>0.073</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6363,19 +6354,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C10" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D10" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E10" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F10" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G10">
         <v>504</v>
@@ -6387,10 +6378,10 @@
         <v>-3.687</v>
       </c>
       <c r="J10">
-        <v>-2.207</v>
+        <v>-3.361</v>
       </c>
       <c r="K10">
-        <v>0.028</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6398,19 +6389,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C11" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D11" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E11" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G11">
         <v>504</v>
@@ -6422,10 +6413,10 @@
         <v>-1.09</v>
       </c>
       <c r="J11">
-        <v>-0.655</v>
+        <v>-0.74</v>
       </c>
       <c r="K11">
-        <v>0.513</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6433,19 +6424,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E12" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F12" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G12">
         <v>504</v>
@@ -6457,10 +6448,10 @@
         <v>1.98</v>
       </c>
       <c r="J12">
-        <v>1.158</v>
+        <v>1.107</v>
       </c>
       <c r="K12">
-        <v>0.248</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6468,19 +6459,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C13" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D13" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E13" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F13" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G13">
         <v>504</v>
@@ -6492,10 +6483,10 @@
         <v>-1.768</v>
       </c>
       <c r="J13">
-        <v>-1.038</v>
+        <v>-0.953</v>
       </c>
       <c r="K13">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6503,19 +6494,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C14" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D14" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E14" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F14" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G14">
         <v>504</v>
@@ -6527,10 +6518,10 @@
         <v>0.004</v>
       </c>
       <c r="J14">
-        <v>0.137</v>
+        <v>0.142</v>
       </c>
       <c r="K14">
-        <v>0.891</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6538,19 +6529,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D15" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E15" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F15" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G15">
         <v>504</v>
@@ -6562,10 +6553,10 @@
         <v>0.029</v>
       </c>
       <c r="J15">
-        <v>1.082</v>
+        <v>1.168</v>
       </c>
       <c r="K15">
-        <v>0.28</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6573,19 +6564,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C16" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D16" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E16" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F16" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G16">
         <v>504</v>
@@ -6597,10 +6588,10 @@
         <v>0.003</v>
       </c>
       <c r="J16">
-        <v>0.094</v>
+        <v>0.095</v>
       </c>
       <c r="K16">
-        <v>0.925</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6608,19 +6599,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C17" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D17" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E17" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F17" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G17">
         <v>504</v>
@@ -6632,10 +6623,10 @@
         <v>0.065</v>
       </c>
       <c r="J17">
-        <v>2.272</v>
+        <v>2.435</v>
       </c>
       <c r="K17">
-        <v>0.024</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6643,19 +6634,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C18" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D18" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E18" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F18" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G18">
         <v>504</v>
@@ -6667,10 +6658,10 @@
         <v>0.035</v>
       </c>
       <c r="J18">
-        <v>1.218</v>
+        <v>1.65</v>
       </c>
       <c r="K18">
-        <v>0.224</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6678,19 +6669,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C19" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D19" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E19" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F19" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G19">
         <v>504</v>
@@ -6702,10 +6693,10 @@
         <v>0.017</v>
       </c>
       <c r="J19">
-        <v>0.582</v>
+        <v>0.843</v>
       </c>
       <c r="K19">
-        <v>0.5610000000000001</v>
+        <v>0.399</v>
       </c>
     </row>
   </sheetData>
@@ -6770,16 +6761,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C2" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D2" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F2">
         <v>504</v>
@@ -6791,10 +6782,10 @@
         <v>0.925</v>
       </c>
       <c r="I2">
-        <v>0.431</v>
+        <v>0.481</v>
       </c>
       <c r="J2">
-        <v>0.667</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6802,16 +6793,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F3">
         <v>504</v>
@@ -6823,10 +6814,10 @@
         <v>-0.225</v>
       </c>
       <c r="I3">
-        <v>-0.11</v>
+        <v>-0.138</v>
       </c>
       <c r="J3">
-        <v>0.913</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6834,16 +6825,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D4" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F4">
         <v>504</v>
@@ -6855,10 +6846,10 @@
         <v>0.589</v>
       </c>
       <c r="I4">
-        <v>0.208</v>
+        <v>0.213</v>
       </c>
       <c r="J4">
-        <v>0.835</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6866,16 +6857,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F5">
         <v>504</v>
@@ -6887,10 +6878,10 @@
         <v>-0.538</v>
       </c>
       <c r="I5">
-        <v>-0.19</v>
+        <v>-0.192</v>
       </c>
       <c r="J5">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6898,16 +6889,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C6" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D6" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E6" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F6">
         <v>504</v>
@@ -6919,10 +6910,10 @@
         <v>-1.472</v>
       </c>
       <c r="I6">
-        <v>-0.509</v>
+        <v>-0.447</v>
       </c>
       <c r="J6">
-        <v>0.611</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6930,16 +6921,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C7" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D7" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E7" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F7">
         <v>504</v>
@@ -6951,10 +6942,10 @@
         <v>5.005</v>
       </c>
       <c r="I7">
-        <v>1.728</v>
+        <v>1.469</v>
       </c>
       <c r="J7">
-        <v>0.08500000000000001</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6962,16 +6953,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C8" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D8" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E8" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F8">
         <v>504</v>
@@ -6980,13 +6971,13 @@
         <v>0.06</v>
       </c>
       <c r="H8">
-        <v>-0.046</v>
+        <v>-0</v>
       </c>
       <c r="I8">
-        <v>-0.055</v>
+        <v>-0.001</v>
       </c>
       <c r="J8">
-        <v>0.957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6994,16 +6985,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C9" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D9" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E9" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F9">
         <v>504</v>
@@ -7015,10 +7006,10 @@
         <v>-0.206</v>
       </c>
       <c r="I9">
-        <v>-0.238</v>
+        <v>-0.286</v>
       </c>
       <c r="J9">
-        <v>0.8120000000000001</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7026,16 +7017,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C10" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D10" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E10" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F10">
         <v>504</v>
@@ -7047,10 +7038,10 @@
         <v>-0.516</v>
       </c>
       <c r="I10">
-        <v>-0.515</v>
+        <v>-0.531</v>
       </c>
       <c r="J10">
-        <v>0.607</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7058,16 +7049,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C11" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D11" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E11" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F11">
         <v>504</v>
@@ -7079,10 +7070,10 @@
         <v>-0.38</v>
       </c>
       <c r="I11">
-        <v>-0.382</v>
+        <v>-0.391</v>
       </c>
       <c r="J11">
-        <v>0.703</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7090,16 +7081,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C12" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D12" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E12" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F12">
         <v>504</v>
@@ -7111,10 +7102,10 @@
         <v>1.14</v>
       </c>
       <c r="I12">
-        <v>1.118</v>
+        <v>1.003</v>
       </c>
       <c r="J12">
-        <v>0.264</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7122,16 +7113,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C13" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D13" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E13" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F13">
         <v>504</v>
@@ -7143,10 +7134,10 @@
         <v>-1.551</v>
       </c>
       <c r="I13">
-        <v>-1.53</v>
+        <v>-1.268</v>
       </c>
       <c r="J13">
-        <v>0.127</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7154,16 +7145,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C14" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D14" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E14" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F14">
         <v>504</v>
@@ -7175,10 +7166,10 @@
         <v>0.006</v>
       </c>
       <c r="I14">
-        <v>0.35</v>
+        <v>0.378</v>
       </c>
       <c r="J14">
-        <v>0.727</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7186,16 +7177,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C15" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D15" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E15" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F15">
         <v>504</v>
@@ -7207,10 +7198,10 @@
         <v>0.011</v>
       </c>
       <c r="I15">
-        <v>0.668</v>
+        <v>0.54</v>
       </c>
       <c r="J15">
-        <v>0.505</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7218,16 +7209,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C16" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D16" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E16" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F16">
         <v>504</v>
@@ -7239,10 +7230,10 @@
         <v>-0.007</v>
       </c>
       <c r="I16">
-        <v>-0.415</v>
+        <v>-0.408</v>
       </c>
       <c r="J16">
-        <v>0.678</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7250,16 +7241,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C17" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D17" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E17" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F17">
         <v>504</v>
@@ -7271,10 +7262,10 @@
         <v>0.037</v>
       </c>
       <c r="I17">
-        <v>2.16</v>
+        <v>2.051</v>
       </c>
       <c r="J17">
-        <v>0.031</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7282,16 +7273,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C18" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D18" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E18" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F18">
         <v>504</v>
@@ -7303,10 +7294,10 @@
         <v>0.022</v>
       </c>
       <c r="I18">
-        <v>1.296</v>
+        <v>1.585</v>
       </c>
       <c r="J18">
-        <v>0.195</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7314,16 +7305,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C19" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D19" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E19" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F19">
         <v>504</v>
@@ -7335,10 +7326,10 @@
         <v>0.018</v>
       </c>
       <c r="I19">
-        <v>1.044</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0.297</v>
+        <v>0.317</v>
       </c>
     </row>
   </sheetData>
@@ -7403,16 +7394,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C2" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F2">
         <v>504</v>
@@ -7424,10 +7415,10 @@
         <v>2.869</v>
       </c>
       <c r="I2">
-        <v>1.112</v>
+        <v>1.197</v>
       </c>
       <c r="J2">
-        <v>0.267</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7435,16 +7426,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E3" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F3">
         <v>504</v>
@@ -7456,10 +7447,10 @@
         <v>0.502</v>
       </c>
       <c r="I3">
-        <v>0.204</v>
+        <v>0.253</v>
       </c>
       <c r="J3">
-        <v>0.839</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7467,16 +7458,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C4" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D4" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E4" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F4">
         <v>504</v>
@@ -7488,10 +7479,10 @@
         <v>2.354</v>
       </c>
       <c r="I4">
-        <v>0.6909999999999999</v>
+        <v>0.891</v>
       </c>
       <c r="J4">
-        <v>0.49</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7499,16 +7490,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C5" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E5" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F5">
         <v>504</v>
@@ -7520,10 +7511,10 @@
         <v>-1.753</v>
       </c>
       <c r="I5">
-        <v>-0.516</v>
+        <v>-0.591</v>
       </c>
       <c r="J5">
-        <v>0.606</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7531,16 +7522,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C6" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D6" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E6" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="F6">
         <v>504</v>
@@ -7552,10 +7543,10 @@
         <v>-4.202</v>
       </c>
       <c r="I6">
-        <v>-1.207</v>
+        <v>-1.32</v>
       </c>
       <c r="J6">
-        <v>0.228</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7563,16 +7554,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C7" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D7" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E7" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F7">
         <v>504</v>
@@ -7584,10 +7575,10 @@
         <v>3.658</v>
       </c>
       <c r="I7">
-        <v>1.046</v>
+        <v>1.061</v>
       </c>
       <c r="J7">
-        <v>0.296</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7595,16 +7586,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C8" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D8" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E8" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F8">
         <v>504</v>
@@ -7613,13 +7604,13 @@
         <v>0.041</v>
       </c>
       <c r="H8">
-        <v>-1.336</v>
+        <v>-1.286</v>
       </c>
       <c r="I8">
-        <v>-1.331</v>
+        <v>-1.449</v>
       </c>
       <c r="J8">
-        <v>0.184</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7627,16 +7618,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C9" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D9" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E9" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F9">
         <v>504</v>
@@ -7648,10 +7639,10 @@
         <v>-0.056</v>
       </c>
       <c r="I9">
-        <v>-0.054</v>
+        <v>-0.068</v>
       </c>
       <c r="J9">
-        <v>0.957</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7659,16 +7650,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C10" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E10" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F10">
         <v>504</v>
@@ -7680,10 +7671,10 @@
         <v>-0.57</v>
       </c>
       <c r="I10">
-        <v>-0.472</v>
+        <v>-0.617</v>
       </c>
       <c r="J10">
-        <v>0.637</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7691,16 +7682,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C11" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E11" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F11">
         <v>504</v>
@@ -7712,10 +7703,10 @@
         <v>-0.176</v>
       </c>
       <c r="I11">
-        <v>-0.147</v>
+        <v>-0.168</v>
       </c>
       <c r="J11">
-        <v>0.883</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7723,16 +7714,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C12" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D12" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E12" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="F12">
         <v>504</v>
@@ -7744,10 +7735,10 @@
         <v>1.748</v>
       </c>
       <c r="I12">
-        <v>1.424</v>
+        <v>1.601</v>
       </c>
       <c r="J12">
-        <v>0.155</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7755,16 +7746,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C13" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D13" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E13" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F13">
         <v>504</v>
@@ -7776,10 +7767,10 @@
         <v>-1.408</v>
       </c>
       <c r="I13">
-        <v>-1.152</v>
+        <v>-1.254</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7787,16 +7778,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C14" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D14" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E14" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F14">
         <v>504</v>
@@ -7808,10 +7799,10 @@
         <v>0.005</v>
       </c>
       <c r="I14">
-        <v>0.242</v>
+        <v>0.301</v>
       </c>
       <c r="J14">
-        <v>0.8090000000000001</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7819,16 +7810,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C15" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D15" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E15" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F15">
         <v>504</v>
@@ -7840,10 +7831,10 @@
         <v>0.006</v>
       </c>
       <c r="I15">
-        <v>0.32</v>
+        <v>0.263</v>
       </c>
       <c r="J15">
-        <v>0.749</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7851,16 +7842,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C16" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D16" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E16" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F16">
         <v>504</v>
@@ -7872,10 +7863,10 @@
         <v>-0.022</v>
       </c>
       <c r="I16">
-        <v>-1.091</v>
+        <v>-1.074</v>
       </c>
       <c r="J16">
-        <v>0.276</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7883,16 +7874,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C17" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D17" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E17" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F17">
         <v>504</v>
@@ -7904,10 +7895,10 @@
         <v>0.049</v>
       </c>
       <c r="I17">
-        <v>2.421</v>
+        <v>2.102</v>
       </c>
       <c r="J17">
-        <v>0.016</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7915,16 +7906,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C18" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D18" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E18" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F18">
         <v>504</v>
@@ -7936,10 +7927,10 @@
         <v>0.02</v>
       </c>
       <c r="I18">
-        <v>0.954</v>
+        <v>1.317</v>
       </c>
       <c r="J18">
-        <v>0.34</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7947,16 +7938,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C19" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D19" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E19" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="F19">
         <v>504</v>
@@ -7968,10 +7959,10 @@
         <v>0.028</v>
       </c>
       <c r="I19">
-        <v>1.345</v>
+        <v>1.326</v>
       </c>
       <c r="J19">
-        <v>0.179</v>
+        <v>0.185</v>
       </c>
     </row>
   </sheetData>
@@ -8040,19 +8031,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D2" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E2" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G2">
         <v>504</v>
@@ -8064,10 +8055,10 @@
         <v>5.024</v>
       </c>
       <c r="J2">
-        <v>1.775</v>
+        <v>1.879</v>
       </c>
       <c r="K2">
-        <v>0.077</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8075,19 +8066,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C3" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D3" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E3" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F3" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G3">
         <v>504</v>
@@ -8099,10 +8090,10 @@
         <v>3.911</v>
       </c>
       <c r="J3">
-        <v>1.448</v>
+        <v>1.647</v>
       </c>
       <c r="K3">
-        <v>0.148</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8110,19 +8101,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C4" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E4" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="F4" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G4">
         <v>504</v>
@@ -8134,10 +8125,10 @@
         <v>5.6</v>
       </c>
       <c r="J4">
-        <v>1.499</v>
+        <v>2.025</v>
       </c>
       <c r="K4">
-        <v>0.135</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8145,19 +8136,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C5" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D5" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E5" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="F5" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G5">
         <v>504</v>
@@ -8169,10 +8160,10 @@
         <v>0.52</v>
       </c>
       <c r="J5">
-        <v>0.139</v>
+        <v>0.169</v>
       </c>
       <c r="K5">
-        <v>0.89</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8180,19 +8171,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C6" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D6" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E6" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F6" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G6">
         <v>504</v>
@@ -8204,10 +8195,10 @@
         <v>-4.772</v>
       </c>
       <c r="J6">
-        <v>-1.247</v>
+        <v>-1.434</v>
       </c>
       <c r="K6">
-        <v>0.213</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8215,19 +8206,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C7" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D7" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E7" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F7" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G7">
         <v>504</v>
@@ -8239,10 +8230,10 @@
         <v>2.364</v>
       </c>
       <c r="J7">
-        <v>0.614</v>
+        <v>0.675</v>
       </c>
       <c r="K7">
-        <v>0.539</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8250,19 +8241,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C8" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D8" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F8" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G8">
         <v>504</v>
@@ -8271,13 +8262,13 @@
         <v>0.033</v>
       </c>
       <c r="I8">
-        <v>-1.597</v>
+        <v>-1.546</v>
       </c>
       <c r="J8">
-        <v>-1.448</v>
+        <v>-1.547</v>
       </c>
       <c r="K8">
-        <v>0.148</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8285,19 +8276,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C9" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D9" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E9" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F9" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G9">
         <v>504</v>
@@ -8309,10 +8300,10 @@
         <v>-1.876</v>
       </c>
       <c r="J9">
-        <v>-1.642</v>
+        <v>-1.749</v>
       </c>
       <c r="K9">
-        <v>0.101</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8320,19 +8311,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C10" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D10" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E10" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F10" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G10">
         <v>504</v>
@@ -8344,10 +8335,10 @@
         <v>-2.121</v>
       </c>
       <c r="J10">
-        <v>-1.604</v>
+        <v>-2.08</v>
       </c>
       <c r="K10">
-        <v>0.11</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8355,19 +8346,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C11" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D11" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E11" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="F11" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="G11">
         <v>504</v>
@@ -8379,10 +8370,10 @@
         <v>-0.973</v>
       </c>
       <c r="J11">
-        <v>-0.74</v>
+        <v>-0.968</v>
       </c>
       <c r="K11">
-        <v>0.46</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8390,19 +8381,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C12" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D12" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E12" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="F12" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G12">
         <v>504</v>
@@ -8414,10 +8405,10 @@
         <v>1.555</v>
       </c>
       <c r="J12">
-        <v>1.152</v>
+        <v>1.134</v>
       </c>
       <c r="K12">
-        <v>0.25</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8425,19 +8416,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C13" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D13" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E13" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F13" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="G13">
         <v>504</v>
@@ -8449,10 +8440,10 @@
         <v>-0.707</v>
       </c>
       <c r="J13">
-        <v>-0.525</v>
+        <v>-0.636</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8460,19 +8451,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C14" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D14" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E14" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="F14" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G14">
         <v>504</v>
@@ -8484,10 +8475,10 @@
         <v>0.013</v>
       </c>
       <c r="J14">
-        <v>0.607</v>
+        <v>0.662</v>
       </c>
       <c r="K14">
-        <v>0.544</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8495,19 +8486,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C15" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="D15" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E15" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="F15" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="G15">
         <v>504</v>
@@ -8519,10 +8510,10 @@
         <v>0.016</v>
       </c>
       <c r="J15">
-        <v>0.767</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="K15">
-        <v>0.444</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8530,19 +8521,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C16" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D16" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E16" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="F16" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="G16">
         <v>504</v>
@@ -8554,10 +8545,10 @@
         <v>-0.021</v>
       </c>
       <c r="J16">
-        <v>-0.929</v>
+        <v>-0.871</v>
       </c>
       <c r="K16">
-        <v>0.353</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8565,19 +8556,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C17" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D17" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E17" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="F17" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="G17">
         <v>504</v>
@@ -8589,10 +8580,10 @@
         <v>0.046</v>
       </c>
       <c r="J17">
-        <v>2.039</v>
+        <v>1.823</v>
       </c>
       <c r="K17">
-        <v>0.042</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8600,19 +8591,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C18" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D18" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E18" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F18" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="G18">
         <v>504</v>
@@ -8624,10 +8615,10 @@
         <v>0.02</v>
       </c>
       <c r="J18">
-        <v>0.885</v>
+        <v>1.213</v>
       </c>
       <c r="K18">
-        <v>0.377</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8635,19 +8626,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C19" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D19" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E19" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F19" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="G19">
         <v>504</v>
@@ -8659,10 +8650,10 @@
         <v>0.022</v>
       </c>
       <c r="J19">
-        <v>0.93</v>
+        <v>1.052</v>
       </c>
       <c r="K19">
-        <v>0.353</v>
+        <v>0.293</v>
       </c>
     </row>
   </sheetData>
@@ -8731,19 +8722,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C2" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E2" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="F2" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="G2">
         <v>504</v>
@@ -8755,10 +8746,10 @@
         <v>5.491</v>
       </c>
       <c r="J2">
-        <v>1.678</v>
+        <v>1.754</v>
       </c>
       <c r="K2">
-        <v>0.094</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8766,19 +8757,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C3" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D3" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E3" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="F3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="G3">
         <v>504</v>
@@ -8790,10 +8781,10 @@
         <v>4.16</v>
       </c>
       <c r="J3">
-        <v>1.333</v>
+        <v>1.924</v>
       </c>
       <c r="K3">
-        <v>0.183</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8801,19 +8792,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C4" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D4" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E4" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="F4" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="G4">
         <v>504</v>
@@ -8825,10 +8816,10 @@
         <v>6.663</v>
       </c>
       <c r="J4">
-        <v>1.543</v>
+        <v>2.139</v>
       </c>
       <c r="K4">
-        <v>0.124</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8836,19 +8827,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C5" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D5" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="E5" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="F5" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="G5">
         <v>504</v>
@@ -8871,19 +8862,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C6" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D6" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="E6" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="F6" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="G6">
         <v>504</v>
@@ -8895,10 +8886,10 @@
         <v>-6.414</v>
       </c>
       <c r="J6">
-        <v>-1.452</v>
+        <v>-1.549</v>
       </c>
       <c r="K6">
-        <v>0.147</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8906,19 +8897,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C7" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D7" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="E7" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="F7" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="G7">
         <v>504</v>
@@ -8930,10 +8921,10 @@
         <v>3.99</v>
       </c>
       <c r="J7">
-        <v>0.898</v>
+        <v>0.872</v>
       </c>
       <c r="K7">
-        <v>0.37</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8941,19 +8932,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C8" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D8" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="E8" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="F8" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="G8">
         <v>504</v>
@@ -8962,13 +8953,13 @@
         <v>0.025</v>
       </c>
       <c r="I8">
-        <v>-1.691</v>
+        <v>-1.601</v>
       </c>
       <c r="J8">
-        <v>-1.326</v>
+        <v>-1.356</v>
       </c>
       <c r="K8">
-        <v>0.185</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8976,19 +8967,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C9" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D9" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="E9" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="F9" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="G9">
         <v>504</v>
@@ -9000,10 +8991,10 @@
         <v>-2.282</v>
       </c>
       <c r="J9">
-        <v>-1.728</v>
+        <v>-2.28</v>
       </c>
       <c r="K9">
-        <v>0.08500000000000001</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -9011,19 +9002,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C10" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D10" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="E10" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="F10" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="G10">
         <v>504</v>
@@ -9035,10 +9026,10 @@
         <v>-2.741</v>
       </c>
       <c r="J10">
-        <v>-1.794</v>
+        <v>-2.405</v>
       </c>
       <c r="K10">
-        <v>0.073</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -9046,19 +9037,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C11" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D11" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E11" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="F11" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="G11">
         <v>504</v>
@@ -9070,10 +9061,10 @@
         <v>-0.672</v>
       </c>
       <c r="J11">
-        <v>-0.442</v>
+        <v>-0.473</v>
       </c>
       <c r="K11">
-        <v>0.659</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -9081,19 +9072,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C12" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D12" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="E12" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="F12" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="G12">
         <v>504</v>
@@ -9105,10 +9096,10 @@
         <v>1.961</v>
       </c>
       <c r="J12">
-        <v>1.257</v>
+        <v>1.217</v>
       </c>
       <c r="K12">
-        <v>0.209</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -9116,19 +9107,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C13" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D13" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="E13" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="F13" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="G13">
         <v>504</v>
@@ -9140,10 +9131,10 @@
         <v>-1.424</v>
       </c>
       <c r="J13">
-        <v>-0.916</v>
+        <v>-0.976</v>
       </c>
       <c r="K13">
-        <v>0.36</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -9151,19 +9142,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C14" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D14" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E14" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="F14" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="G14">
         <v>504</v>
@@ -9175,10 +9166,10 @@
         <v>-0.001</v>
       </c>
       <c r="J14">
-        <v>-0.053</v>
+        <v>-0.055</v>
       </c>
       <c r="K14">
-        <v>0.958</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -9186,19 +9177,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C15" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D15" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E15" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="G15">
         <v>504</v>
@@ -9210,10 +9201,10 @@
         <v>0.014</v>
       </c>
       <c r="J15">
-        <v>0.5669999999999999</v>
+        <v>0.621</v>
       </c>
       <c r="K15">
-        <v>0.571</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9221,19 +9212,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C16" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D16" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="E16" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="F16" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="G16">
         <v>504</v>
@@ -9245,10 +9236,10 @@
         <v>-0.006</v>
       </c>
       <c r="J16">
-        <v>-0.22</v>
+        <v>-0.221</v>
       </c>
       <c r="K16">
-        <v>0.826</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -9256,19 +9247,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C17" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="D17" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E17" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="F17" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="G17">
         <v>504</v>
@@ -9280,10 +9271,10 @@
         <v>0.043</v>
       </c>
       <c r="J17">
-        <v>1.663</v>
+        <v>1.533</v>
       </c>
       <c r="K17">
-        <v>0.097</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9291,19 +9282,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C18" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D18" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="E18" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="F18" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="G18">
         <v>504</v>
@@ -9315,10 +9306,10 @@
         <v>0.022</v>
       </c>
       <c r="J18">
-        <v>0.831</v>
+        <v>1.069</v>
       </c>
       <c r="K18">
-        <v>0.407</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9326,19 +9317,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C19" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D19" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E19" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="F19" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="G19">
         <v>504</v>
@@ -9350,10 +9341,10 @@
         <v>0.014</v>
       </c>
       <c r="J19">
-        <v>0.539</v>
+        <v>0.716</v>
       </c>
       <c r="K19">
-        <v>0.59</v>
+        <v>0.474</v>
       </c>
     </row>
   </sheetData>
@@ -9439,10 +9430,10 @@
         <v>4.997</v>
       </c>
       <c r="I2">
-        <v>1.531</v>
+        <v>1.265</v>
       </c>
       <c r="J2">
-        <v>0.127</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9471,10 +9462,10 @@
         <v>5.723</v>
       </c>
       <c r="I3">
-        <v>1.843</v>
+        <v>1.617</v>
       </c>
       <c r="J3">
-        <v>0.066</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9503,10 +9494,10 @@
         <v>9.128</v>
       </c>
       <c r="I4">
-        <v>2.126</v>
+        <v>2.436</v>
       </c>
       <c r="J4">
-        <v>0.034</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9535,10 +9526,10 @@
         <v>5.792</v>
       </c>
       <c r="I5">
-        <v>1.348</v>
+        <v>1.389</v>
       </c>
       <c r="J5">
-        <v>0.178</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9567,10 +9558,10 @@
         <v>2.906</v>
       </c>
       <c r="I6">
-        <v>0.659</v>
+        <v>0.77</v>
       </c>
       <c r="J6">
-        <v>0.511</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9599,10 +9590,10 @@
         <v>7.801</v>
       </c>
       <c r="I7">
-        <v>1.766</v>
+        <v>1.883</v>
       </c>
       <c r="J7">
-        <v>0.078</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9628,13 +9619,13 @@
         <v>0.025</v>
       </c>
       <c r="H8">
-        <v>-2.558</v>
+        <v>-2.554</v>
       </c>
       <c r="I8">
-        <v>-2.018</v>
+        <v>-1.939</v>
       </c>
       <c r="J8">
-        <v>0.044</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9663,10 +9654,10 @@
         <v>-2.15</v>
       </c>
       <c r="I9">
-        <v>-1.633</v>
+        <v>-1.711</v>
       </c>
       <c r="J9">
-        <v>0.103</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9695,10 +9686,10 @@
         <v>-3.302</v>
       </c>
       <c r="I10">
-        <v>-2.172</v>
+        <v>-2.418</v>
       </c>
       <c r="J10">
-        <v>0.03</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9727,10 +9718,10 @@
         <v>-2.818</v>
       </c>
       <c r="I11">
-        <v>-1.867</v>
+        <v>-1.723</v>
       </c>
       <c r="J11">
-        <v>0.063</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9759,10 +9750,10 @@
         <v>-1.02</v>
       </c>
       <c r="I12">
-        <v>-0.655</v>
+        <v>-0.739</v>
       </c>
       <c r="J12">
-        <v>0.513</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9791,10 +9782,10 @@
         <v>-3.175</v>
       </c>
       <c r="I13">
-        <v>-2.058</v>
+        <v>-2.354</v>
       </c>
       <c r="J13">
-        <v>0.04</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9823,10 +9814,10 @@
         <v>0.018</v>
       </c>
       <c r="I14">
-        <v>0.727</v>
+        <v>0.615</v>
       </c>
       <c r="J14">
-        <v>0.467</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9855,10 +9846,10 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>0.394</v>
+        <v>0.34</v>
       </c>
       <c r="J15">
-        <v>0.694</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9887,10 +9878,10 @@
         <v>-0.012</v>
       </c>
       <c r="I16">
-        <v>-0.444</v>
+        <v>-0.4</v>
       </c>
       <c r="J16">
-        <v>0.657</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9919,10 +9910,10 @@
         <v>0.045</v>
       </c>
       <c r="I17">
-        <v>1.733</v>
+        <v>2.154</v>
       </c>
       <c r="J17">
-        <v>0.08400000000000001</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9951,10 +9942,10 @@
         <v>0.024</v>
       </c>
       <c r="I18">
-        <v>0.907</v>
+        <v>0.98</v>
       </c>
       <c r="J18">
-        <v>0.365</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9983,10 +9974,10 @@
         <v>0.045</v>
       </c>
       <c r="I19">
-        <v>1.703</v>
+        <v>1.406</v>
       </c>
       <c r="J19">
-        <v>0.089</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -10072,10 +10063,10 @@
         <v>9.028</v>
       </c>
       <c r="I2">
-        <v>2.446</v>
+        <v>1.856</v>
       </c>
       <c r="J2">
-        <v>0.015</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10104,10 +10095,10 @@
         <v>8.9</v>
       </c>
       <c r="I3">
-        <v>2.533</v>
+        <v>2.058</v>
       </c>
       <c r="J3">
-        <v>0.012</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10136,10 +10127,10 @@
         <v>12.812</v>
       </c>
       <c r="I4">
-        <v>2.636</v>
+        <v>2.891</v>
       </c>
       <c r="J4">
-        <v>0.008999999999999999</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10168,10 +10159,10 @@
         <v>8.343</v>
       </c>
       <c r="I5">
-        <v>1.712</v>
+        <v>1.921</v>
       </c>
       <c r="J5">
-        <v>0.08799999999999999</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10200,10 +10191,10 @@
         <v>2.912</v>
       </c>
       <c r="I6">
-        <v>0.581</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="J6">
-        <v>0.5610000000000001</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10232,10 +10223,10 @@
         <v>8.27</v>
       </c>
       <c r="I7">
-        <v>1.648</v>
+        <v>1.508</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10264,10 +10255,10 @@
         <v>-3.529</v>
       </c>
       <c r="I8">
-        <v>-2.458</v>
+        <v>-2.239</v>
       </c>
       <c r="J8">
-        <v>0.014</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10296,10 +10287,10 @@
         <v>-3.861</v>
       </c>
       <c r="I9">
-        <v>-2.595</v>
+        <v>-2.324</v>
       </c>
       <c r="J9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10328,10 +10319,10 @@
         <v>-4.86</v>
       </c>
       <c r="I10">
-        <v>-2.827</v>
+        <v>-3.176</v>
       </c>
       <c r="J10">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10360,10 +10351,10 @@
         <v>-3.396</v>
       </c>
       <c r="I11">
-        <v>-1.983</v>
+        <v>-2.132</v>
       </c>
       <c r="J11">
-        <v>0.048</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10392,10 +10383,10 @@
         <v>-1.568</v>
       </c>
       <c r="I12">
-        <v>-0.887</v>
+        <v>-1.021</v>
       </c>
       <c r="J12">
-        <v>0.375</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10424,10 +10415,10 @@
         <v>-3.318</v>
       </c>
       <c r="I13">
-        <v>-1.893</v>
+        <v>-1.793</v>
       </c>
       <c r="J13">
-        <v>0.059</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10456,10 +10447,10 @@
         <v>0.033</v>
       </c>
       <c r="I14">
-        <v>1.186</v>
+        <v>1.233</v>
       </c>
       <c r="J14">
-        <v>0.236</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10488,10 +10479,10 @@
         <v>0.028</v>
       </c>
       <c r="I15">
-        <v>0.988</v>
+        <v>1.166</v>
       </c>
       <c r="J15">
-        <v>0.324</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10520,10 +10511,10 @@
         <v>0.005</v>
       </c>
       <c r="I16">
-        <v>0.171</v>
+        <v>0.176</v>
       </c>
       <c r="J16">
-        <v>0.864</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10552,10 +10543,10 @@
         <v>0.059</v>
       </c>
       <c r="I17">
-        <v>1.991</v>
+        <v>2.032</v>
       </c>
       <c r="J17">
-        <v>0.047</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10584,10 +10575,10 @@
         <v>0.023</v>
       </c>
       <c r="I18">
-        <v>0.782</v>
+        <v>0.845</v>
       </c>
       <c r="J18">
-        <v>0.434</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10616,10 +10607,10 @@
         <v>0.064</v>
       </c>
       <c r="I19">
-        <v>2.111</v>
+        <v>1.86</v>
       </c>
       <c r="J19">
-        <v>0.035</v>
+        <v>0.063</v>
       </c>
     </row>
   </sheetData>
@@ -10690,10 +10681,10 @@
         <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2">
         <v>504</v>
@@ -10705,10 +10696,10 @@
         <v>10.199</v>
       </c>
       <c r="I2">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="J2">
-        <v>0.018</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10722,10 +10713,10 @@
         <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F3">
         <v>504</v>
@@ -10737,10 +10728,10 @@
         <v>9.148999999999999</v>
       </c>
       <c r="I3">
-        <v>2.24</v>
+        <v>1.771</v>
       </c>
       <c r="J3">
-        <v>0.026</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10754,10 +10745,10 @@
         <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4">
         <v>504</v>
@@ -10769,10 +10760,10 @@
         <v>15.851</v>
       </c>
       <c r="I4">
-        <v>2.812</v>
+        <v>2.714</v>
       </c>
       <c r="J4">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10786,10 +10777,10 @@
         <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5">
         <v>504</v>
@@ -10801,10 +10792,10 @@
         <v>8.372999999999999</v>
       </c>
       <c r="I5">
-        <v>1.479</v>
+        <v>1.298</v>
       </c>
       <c r="J5">
-        <v>0.14</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10818,10 +10809,10 @@
         <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6">
         <v>504</v>
@@ -10833,10 +10824,10 @@
         <v>4.5</v>
       </c>
       <c r="I6">
-        <v>0.774</v>
+        <v>0.805</v>
       </c>
       <c r="J6">
-        <v>0.439</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10850,10 +10841,10 @@
         <v>261</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F7">
         <v>504</v>
@@ -10865,10 +10856,10 @@
         <v>11.723</v>
       </c>
       <c r="I7">
-        <v>2.016</v>
+        <v>1.767</v>
       </c>
       <c r="J7">
-        <v>0.044</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10882,10 +10873,10 @@
         <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F8">
         <v>504</v>
@@ -10894,13 +10885,13 @@
         <v>0.014</v>
       </c>
       <c r="H8">
-        <v>-4.089</v>
+        <v>-4.059</v>
       </c>
       <c r="I8">
-        <v>-2.453</v>
+        <v>-2.532</v>
       </c>
       <c r="J8">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10911,13 +10902,13 @@
         <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F9">
         <v>504</v>
@@ -10929,10 +10920,10 @@
         <v>-4.428</v>
       </c>
       <c r="I9">
-        <v>-2.564</v>
+        <v>-2.1</v>
       </c>
       <c r="J9">
-        <v>0.011</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10943,13 +10934,13 @@
         <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F10">
         <v>504</v>
@@ -10961,10 +10952,10 @@
         <v>-6.441</v>
       </c>
       <c r="I10">
-        <v>-3.237</v>
+        <v>-3.059</v>
       </c>
       <c r="J10">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10975,13 +10966,13 @@
         <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F11">
         <v>504</v>
@@ -10993,10 +10984,10 @@
         <v>-3.106</v>
       </c>
       <c r="I11">
-        <v>-1.559</v>
+        <v>-1.328</v>
       </c>
       <c r="J11">
-        <v>0.12</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11007,13 +10998,13 @@
         <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F12">
         <v>504</v>
@@ -11025,10 +11016,10 @@
         <v>-2.287</v>
       </c>
       <c r="I12">
-        <v>-1.116</v>
+        <v>-1.233</v>
       </c>
       <c r="J12">
-        <v>0.265</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11039,13 +11030,13 @@
         <v>249</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F13">
         <v>504</v>
@@ -11057,10 +11048,10 @@
         <v>-4.52</v>
       </c>
       <c r="I13">
-        <v>-2.225</v>
+        <v>-1.946</v>
       </c>
       <c r="J13">
-        <v>0.027</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11071,13 +11062,13 @@
         <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F14">
         <v>504</v>
@@ -11089,10 +11080,10 @@
         <v>-0.003</v>
       </c>
       <c r="I14">
-        <v>-0.107</v>
+        <v>-0.116</v>
       </c>
       <c r="J14">
-        <v>0.915</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11103,13 +11094,13 @@
         <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F15">
         <v>504</v>
@@ -11121,10 +11112,10 @@
         <v>0.026</v>
       </c>
       <c r="I15">
-        <v>0.806</v>
+        <v>1.005</v>
       </c>
       <c r="J15">
-        <v>0.421</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11135,13 +11126,13 @@
         <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F16">
         <v>504</v>
@@ -11153,10 +11144,10 @@
         <v>0.026</v>
       </c>
       <c r="I16">
-        <v>0.758</v>
+        <v>0.855</v>
       </c>
       <c r="J16">
-        <v>0.449</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11167,13 +11158,13 @@
         <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F17">
         <v>504</v>
@@ -11185,10 +11176,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I17">
-        <v>2.05</v>
+        <v>2.227</v>
       </c>
       <c r="J17">
-        <v>0.041</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11199,13 +11190,13 @@
         <v>254</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F18">
         <v>504</v>
@@ -11217,10 +11208,10 @@
         <v>0.043</v>
       </c>
       <c r="I18">
-        <v>1.229</v>
+        <v>1.55</v>
       </c>
       <c r="J18">
-        <v>0.22</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11231,13 +11222,13 @@
         <v>255</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F19">
         <v>504</v>
@@ -11249,10 +11240,10 @@
         <v>0.053</v>
       </c>
       <c r="I19">
-        <v>1.504</v>
+        <v>1.718</v>
       </c>
       <c r="J19">
-        <v>0.133</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11317,16 +11308,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F2">
         <v>504</v>
@@ -11338,10 +11329,10 @@
         <v>0.181</v>
       </c>
       <c r="I2">
-        <v>0.074</v>
+        <v>0.079</v>
       </c>
       <c r="J2">
-        <v>0.9409999999999999</v>
+        <v>0.9370000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11349,16 +11340,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F3">
         <v>504</v>
@@ -11370,10 +11361,10 @@
         <v>2.191</v>
       </c>
       <c r="I3">
-        <v>0.9340000000000001</v>
+        <v>1.238</v>
       </c>
       <c r="J3">
-        <v>0.351</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11381,16 +11372,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F4">
         <v>504</v>
@@ -11402,10 +11393,10 @@
         <v>6.69</v>
       </c>
       <c r="I4">
-        <v>2.068</v>
+        <v>2.357</v>
       </c>
       <c r="J4">
-        <v>0.039</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11413,16 +11404,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F5">
         <v>504</v>
@@ -11434,10 +11425,10 @@
         <v>4.038</v>
       </c>
       <c r="I5">
-        <v>1.247</v>
+        <v>1.427</v>
       </c>
       <c r="J5">
-        <v>0.213</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11445,16 +11436,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F6">
         <v>504</v>
@@ -11466,10 +11457,10 @@
         <v>-1.1</v>
       </c>
       <c r="I6">
-        <v>-0.331</v>
+        <v>-0.348</v>
       </c>
       <c r="J6">
-        <v>0.741</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11477,16 +11468,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F7">
         <v>504</v>
@@ -11498,10 +11489,10 @@
         <v>3.509</v>
       </c>
       <c r="I7">
-        <v>1.052</v>
+        <v>1.11</v>
       </c>
       <c r="J7">
-        <v>0.293</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11509,16 +11500,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F8">
         <v>504</v>
@@ -11527,13 +11518,13 @@
         <v>0.045</v>
       </c>
       <c r="H8">
-        <v>-0.217</v>
+        <v>-0.195</v>
       </c>
       <c r="I8">
-        <v>-0.226</v>
+        <v>-0.25</v>
       </c>
       <c r="J8">
-        <v>0.822</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11541,16 +11532,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F9">
         <v>504</v>
@@ -11562,10 +11553,10 @@
         <v>-1.359</v>
       </c>
       <c r="I9">
-        <v>-1.369</v>
+        <v>-1.826</v>
       </c>
       <c r="J9">
-        <v>0.172</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11573,16 +11564,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F10">
         <v>504</v>
@@ -11594,10 +11585,10 @@
         <v>-2.959</v>
       </c>
       <c r="I10">
-        <v>-2.59</v>
+        <v>-2.955</v>
       </c>
       <c r="J10">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11605,16 +11596,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F11">
         <v>504</v>
@@ -11626,10 +11617,10 @@
         <v>-2.117</v>
       </c>
       <c r="I11">
-        <v>-1.862</v>
+        <v>-2.099</v>
       </c>
       <c r="J11">
-        <v>0.063</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11637,16 +11628,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F12">
         <v>504</v>
@@ -11658,10 +11649,10 @@
         <v>0.581</v>
       </c>
       <c r="I12">
-        <v>0.495</v>
+        <v>0.496</v>
       </c>
       <c r="J12">
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11669,16 +11660,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F13">
         <v>504</v>
@@ -11690,10 +11681,10 @@
         <v>-1.264</v>
       </c>
       <c r="I13">
-        <v>-1.084</v>
+        <v>-1.099</v>
       </c>
       <c r="J13">
-        <v>0.279</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11701,16 +11692,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F14">
         <v>504</v>
@@ -11722,10 +11713,10 @@
         <v>-0.006</v>
       </c>
       <c r="I14">
-        <v>-0.347</v>
+        <v>-0.361</v>
       </c>
       <c r="J14">
-        <v>0.729</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11733,16 +11724,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F15">
         <v>504</v>
@@ -11754,10 +11745,10 @@
         <v>0.014</v>
       </c>
       <c r="I15">
-        <v>0.738</v>
+        <v>0.753</v>
       </c>
       <c r="J15">
-        <v>0.461</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11765,16 +11756,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F16">
         <v>504</v>
@@ -11786,10 +11777,10 @@
         <v>0.005</v>
       </c>
       <c r="I16">
-        <v>0.257</v>
+        <v>0.351</v>
       </c>
       <c r="J16">
-        <v>0.797</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11797,16 +11788,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F17">
         <v>504</v>
@@ -11818,10 +11809,10 @@
         <v>0.039</v>
       </c>
       <c r="I17">
-        <v>2.008</v>
+        <v>2.642</v>
       </c>
       <c r="J17">
-        <v>0.045</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11829,16 +11820,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F18">
         <v>504</v>
@@ -11850,10 +11841,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I18">
-        <v>0.448</v>
+        <v>0.658</v>
       </c>
       <c r="J18">
-        <v>0.654</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11861,13 +11852,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E19" t="s">
         <v>165</v>
@@ -11882,10 +11873,10 @@
         <v>0.021</v>
       </c>
       <c r="I19">
-        <v>1.026</v>
+        <v>1.14</v>
       </c>
       <c r="J19">
-        <v>0.305</v>
+        <v>0.254</v>
       </c>
     </row>
   </sheetData>
@@ -11950,16 +11941,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F2">
         <v>504</v>
@@ -11971,10 +11962,10 @@
         <v>2.844</v>
       </c>
       <c r="I2">
-        <v>0.953</v>
+        <v>0.972</v>
       </c>
       <c r="J2">
-        <v>0.341</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11982,16 +11973,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F3">
         <v>504</v>
@@ -12003,10 +11994,10 @@
         <v>2.834</v>
       </c>
       <c r="I3">
-        <v>0.996</v>
+        <v>1.176</v>
       </c>
       <c r="J3">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12014,16 +12005,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F4">
         <v>504</v>
@@ -12035,10 +12026,10 @@
         <v>9.173999999999999</v>
       </c>
       <c r="I4">
-        <v>2.343</v>
+        <v>3.431</v>
       </c>
       <c r="J4">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12046,16 +12037,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F5">
         <v>504</v>
@@ -12067,10 +12058,10 @@
         <v>4.914</v>
       </c>
       <c r="I5">
-        <v>1.252</v>
+        <v>1.341</v>
       </c>
       <c r="J5">
-        <v>0.211</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12078,16 +12069,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F6">
         <v>504</v>
@@ -12099,10 +12090,10 @@
         <v>-2.05</v>
       </c>
       <c r="I6">
-        <v>-0.509</v>
+        <v>-0.594</v>
       </c>
       <c r="J6">
-        <v>0.611</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12110,16 +12101,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F7">
         <v>504</v>
@@ -12131,10 +12122,10 @@
         <v>3.944</v>
       </c>
       <c r="I7">
-        <v>0.975</v>
+        <v>1.141</v>
       </c>
       <c r="J7">
-        <v>0.33</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12142,16 +12133,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F8">
         <v>504</v>
@@ -12160,13 +12151,13 @@
         <v>0.03</v>
       </c>
       <c r="H8">
-        <v>-1.855</v>
+        <v>-1.842</v>
       </c>
       <c r="I8">
-        <v>-1.599</v>
+        <v>-1.949</v>
       </c>
       <c r="J8">
-        <v>0.11</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12174,16 +12165,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F9">
         <v>504</v>
@@ -12195,10 +12186,10 @@
         <v>-1.335</v>
       </c>
       <c r="I9">
-        <v>-1.109</v>
+        <v>-1.409</v>
       </c>
       <c r="J9">
-        <v>0.268</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12206,16 +12197,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F10">
         <v>504</v>
@@ -12227,10 +12218,10 @@
         <v>-3.496</v>
       </c>
       <c r="I10">
-        <v>-2.524</v>
+        <v>-3.796</v>
       </c>
       <c r="J10">
-        <v>0.012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12238,16 +12229,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F11">
         <v>504</v>
@@ -12259,10 +12250,10 @@
         <v>-2.448</v>
       </c>
       <c r="I11">
-        <v>-1.775</v>
+        <v>-1.797</v>
       </c>
       <c r="J11">
-        <v>0.077</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12270,16 +12261,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F12">
         <v>504</v>
@@ -12291,10 +12282,10 @@
         <v>0.5</v>
       </c>
       <c r="I12">
-        <v>0.351</v>
+        <v>0.418</v>
       </c>
       <c r="J12">
-        <v>0.726</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12302,16 +12293,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F13">
         <v>504</v>
@@ -12323,10 +12314,10 @@
         <v>-1.664</v>
       </c>
       <c r="I13">
-        <v>-1.177</v>
+        <v>-1.493</v>
       </c>
       <c r="J13">
-        <v>0.24</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12334,16 +12325,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F14">
         <v>504</v>
@@ -12366,16 +12357,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F15">
         <v>504</v>
@@ -12387,10 +12378,10 @@
         <v>0.013</v>
       </c>
       <c r="I15">
-        <v>0.592</v>
+        <v>0.617</v>
       </c>
       <c r="J15">
-        <v>0.554</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12398,16 +12389,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F16">
         <v>504</v>
@@ -12419,10 +12410,10 @@
         <v>-0.005</v>
       </c>
       <c r="I16">
-        <v>-0.203</v>
+        <v>-0.214</v>
       </c>
       <c r="J16">
-        <v>0.839</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12430,16 +12421,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F17">
         <v>504</v>
@@ -12451,10 +12442,10 @@
         <v>0.063</v>
       </c>
       <c r="I17">
-        <v>2.667</v>
+        <v>3.037</v>
       </c>
       <c r="J17">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12462,16 +12453,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F18">
         <v>504</v>
@@ -12483,10 +12474,10 @@
         <v>0.02</v>
       </c>
       <c r="I18">
-        <v>0.837</v>
+        <v>1.103</v>
       </c>
       <c r="J18">
-        <v>0.403</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12494,16 +12485,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F19">
         <v>504</v>
@@ -12515,10 +12506,10 @@
         <v>0.039</v>
       </c>
       <c r="I19">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="J19">
-        <v>0.106</v>
+        <v>0.101</v>
       </c>
     </row>
   </sheetData>
@@ -12583,16 +12574,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F2">
         <v>504</v>
@@ -12604,10 +12595,10 @@
         <v>6.709</v>
       </c>
       <c r="I2">
-        <v>1.978</v>
+        <v>1.736</v>
       </c>
       <c r="J2">
-        <v>0.049</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12615,16 +12606,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F3">
         <v>504</v>
@@ -12636,10 +12627,10 @@
         <v>6.917</v>
       </c>
       <c r="I3">
-        <v>2.142</v>
+        <v>2.07</v>
       </c>
       <c r="J3">
-        <v>0.033</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12647,16 +12638,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F4">
         <v>504</v>
@@ -12668,10 +12659,10 @@
         <v>14.213</v>
       </c>
       <c r="I4">
-        <v>3.201</v>
+        <v>3.791</v>
       </c>
       <c r="J4">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12679,16 +12670,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F5">
         <v>504</v>
@@ -12700,10 +12691,10 @@
         <v>7.235</v>
       </c>
       <c r="I5">
-        <v>1.619</v>
+        <v>1.901</v>
       </c>
       <c r="J5">
-        <v>0.106</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12711,16 +12702,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F6">
         <v>504</v>
@@ -12732,10 +12723,10 @@
         <v>-1.294</v>
       </c>
       <c r="I6">
-        <v>-0.282</v>
+        <v>-0.334</v>
       </c>
       <c r="J6">
-        <v>0.778</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12743,16 +12734,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F7">
         <v>504</v>
@@ -12764,10 +12755,10 @@
         <v>4.318</v>
       </c>
       <c r="I7">
-        <v>0.9360000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="J7">
-        <v>0.35</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12775,16 +12766,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F8">
         <v>504</v>
@@ -12793,13 +12784,13 @@
         <v>0.023</v>
       </c>
       <c r="H8">
-        <v>-2.662</v>
+        <v>-2.651</v>
       </c>
       <c r="I8">
-        <v>-2.017</v>
+        <v>-2.088</v>
       </c>
       <c r="J8">
-        <v>0.044</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12807,16 +12798,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F9">
         <v>504</v>
@@ -12828,10 +12819,10 @@
         <v>-3.273</v>
       </c>
       <c r="I9">
-        <v>-2.397</v>
+        <v>-2.326</v>
       </c>
       <c r="J9">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12839,16 +12830,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F10">
         <v>504</v>
@@ -12860,7 +12851,7 @@
         <v>-5.676</v>
       </c>
       <c r="I10">
-        <v>-3.621</v>
+        <v>-4.716</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -12871,16 +12862,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F11">
         <v>504</v>
@@ -12892,10 +12883,10 @@
         <v>-3.127</v>
       </c>
       <c r="I11">
-        <v>-1.991</v>
+        <v>-2.336</v>
       </c>
       <c r="J11">
-        <v>0.047</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12903,16 +12894,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F12">
         <v>504</v>
@@ -12924,10 +12915,10 @@
         <v>-0.182</v>
       </c>
       <c r="I12">
-        <v>-0.112</v>
+        <v>-0.119</v>
       </c>
       <c r="J12">
-        <v>0.911</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12935,16 +12926,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F13">
         <v>504</v>
@@ -12956,10 +12947,10 @@
         <v>-1.555</v>
       </c>
       <c r="I13">
-        <v>-0.964</v>
+        <v>-1.14</v>
       </c>
       <c r="J13">
-        <v>0.336</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12967,16 +12958,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F14">
         <v>504</v>
@@ -12988,10 +12979,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I14">
-        <v>0.374</v>
+        <v>0.35</v>
       </c>
       <c r="J14">
-        <v>0.708</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12999,16 +12990,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E15" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F15">
         <v>504</v>
@@ -13020,10 +13011,10 @@
         <v>0.023</v>
       </c>
       <c r="I15">
-        <v>0.912</v>
+        <v>1.175</v>
       </c>
       <c r="J15">
-        <v>0.362</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13031,16 +13022,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D16" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F16">
         <v>504</v>
@@ -13052,10 +13043,10 @@
         <v>0.003</v>
       </c>
       <c r="I16">
-        <v>0.114</v>
+        <v>0.119</v>
       </c>
       <c r="J16">
-        <v>0.909</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13063,16 +13054,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D17" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E17" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F17">
         <v>504</v>
@@ -13084,10 +13075,10 @@
         <v>0.067</v>
       </c>
       <c r="I17">
-        <v>2.492</v>
+        <v>3.062</v>
       </c>
       <c r="J17">
-        <v>0.013</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13095,16 +13086,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D18" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E18" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F18">
         <v>504</v>
@@ -13116,10 +13107,10 @@
         <v>0.028</v>
       </c>
       <c r="I18">
-        <v>1.013</v>
+        <v>1.078</v>
       </c>
       <c r="J18">
-        <v>0.312</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13127,16 +13118,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D19" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E19" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F19">
         <v>504</v>
@@ -13148,10 +13139,10 @@
         <v>0.047</v>
       </c>
       <c r="I19">
-        <v>1.709</v>
+        <v>2.059</v>
       </c>
       <c r="J19">
-        <v>0.08799999999999999</v>
+        <v>0.039</v>
       </c>
     </row>
   </sheetData>
@@ -13216,16 +13207,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F2">
         <v>504</v>
@@ -13237,10 +13228,10 @@
         <v>6.233</v>
       </c>
       <c r="I2">
-        <v>1.562</v>
+        <v>1.444</v>
       </c>
       <c r="J2">
-        <v>0.119</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13248,16 +13239,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F3">
         <v>504</v>
@@ -13269,7 +13260,7 @@
         <v>7.338</v>
       </c>
       <c r="I3">
-        <v>1.933</v>
+        <v>1.923</v>
       </c>
       <c r="J3">
         <v>0.054</v>
@@ -13280,16 +13271,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F4">
         <v>504</v>
@@ -13301,10 +13292,10 @@
         <v>18.09</v>
       </c>
       <c r="I4">
-        <v>3.476</v>
+        <v>3.965</v>
       </c>
       <c r="J4">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13312,16 +13303,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F5">
         <v>504</v>
@@ -13333,10 +13324,10 @@
         <v>6.569</v>
       </c>
       <c r="I5">
-        <v>1.25</v>
+        <v>1.432</v>
       </c>
       <c r="J5">
-        <v>0.212</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13344,16 +13335,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F6">
         <v>504</v>
@@ -13365,10 +13356,10 @@
         <v>-0.379</v>
       </c>
       <c r="I6">
-        <v>-0.07000000000000001</v>
+        <v>-0.082</v>
       </c>
       <c r="J6">
-        <v>0.944</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13376,16 +13367,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F7">
         <v>504</v>
@@ -13397,10 +13388,10 @@
         <v>8.321999999999999</v>
       </c>
       <c r="I7">
-        <v>1.539</v>
+        <v>1.522</v>
       </c>
       <c r="J7">
-        <v>0.124</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13408,16 +13399,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F8">
         <v>504</v>
@@ -13426,13 +13417,13 @@
         <v>0.016</v>
       </c>
       <c r="H8">
-        <v>-2.369</v>
+        <v>-2.317</v>
       </c>
       <c r="I8">
-        <v>-1.526</v>
+        <v>-1.568</v>
       </c>
       <c r="J8">
-        <v>0.128</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13440,16 +13431,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D9" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F9">
         <v>504</v>
@@ -13461,10 +13452,10 @@
         <v>-3.946</v>
       </c>
       <c r="I9">
-        <v>-2.461</v>
+        <v>-2.369</v>
       </c>
       <c r="J9">
-        <v>0.014</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13472,16 +13463,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F10">
         <v>504</v>
@@ -13493,7 +13484,7 @@
         <v>-7.233</v>
       </c>
       <c r="I10">
-        <v>-3.94</v>
+        <v>-4.55</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -13504,16 +13495,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E11" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F11">
         <v>504</v>
@@ -13525,10 +13516,10 @@
         <v>-2.459</v>
       </c>
       <c r="I11">
-        <v>-1.33</v>
+        <v>-1.624</v>
       </c>
       <c r="J11">
-        <v>0.184</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13536,16 +13527,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C12" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F12">
         <v>504</v>
@@ -13557,10 +13548,10 @@
         <v>-0.63</v>
       </c>
       <c r="I12">
-        <v>-0.331</v>
+        <v>-0.348</v>
       </c>
       <c r="J12">
-        <v>0.741</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13568,16 +13559,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C13" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D13" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E13" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F13">
         <v>504</v>
@@ -13589,10 +13580,10 @@
         <v>-3.18</v>
       </c>
       <c r="I13">
-        <v>-1.683</v>
+        <v>-1.805</v>
       </c>
       <c r="J13">
-        <v>0.093</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13600,16 +13591,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C14" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D14" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E14" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F14">
         <v>504</v>
@@ -13621,10 +13612,10 @@
         <v>-0.017</v>
       </c>
       <c r="I14">
-        <v>-0.5620000000000001</v>
+        <v>-0.527</v>
       </c>
       <c r="J14">
-        <v>0.575</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13632,16 +13623,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C15" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F15">
         <v>504</v>
@@ -13653,10 +13644,10 @@
         <v>0.025</v>
       </c>
       <c r="I15">
-        <v>0.819</v>
+        <v>0.874</v>
       </c>
       <c r="J15">
-        <v>0.413</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13664,16 +13655,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C16" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D16" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E16" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F16">
         <v>504</v>
@@ -13685,10 +13676,10 @@
         <v>0.019</v>
       </c>
       <c r="I16">
-        <v>0.594</v>
+        <v>0.598</v>
       </c>
       <c r="J16">
-        <v>0.552</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13696,16 +13687,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C17" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D17" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E17" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F17">
         <v>504</v>
@@ -13717,10 +13708,10 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I17">
-        <v>2.256</v>
+        <v>2.548</v>
       </c>
       <c r="J17">
-        <v>0.025</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13728,16 +13719,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C18" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D18" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E18" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F18">
         <v>504</v>
@@ -13749,10 +13740,10 @@
         <v>0.039</v>
       </c>
       <c r="I18">
-        <v>1.203</v>
+        <v>1.49</v>
       </c>
       <c r="J18">
-        <v>0.23</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13760,16 +13751,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C19" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F19">
         <v>504</v>
@@ -13781,10 +13772,10 @@
         <v>0.035</v>
       </c>
       <c r="I19">
-        <v>1.072</v>
+        <v>1.552</v>
       </c>
       <c r="J19">
-        <v>0.284</v>
+        <v>0.121</v>
       </c>
     </row>
   </sheetData>
@@ -13849,16 +13840,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F2">
         <v>504</v>
@@ -13870,10 +13861,10 @@
         <v>1.919</v>
       </c>
       <c r="I2">
-        <v>0.847</v>
+        <v>0.873</v>
       </c>
       <c r="J2">
-        <v>0.398</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13881,16 +13872,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F3">
         <v>504</v>
@@ -13902,10 +13893,10 @@
         <v>1.132</v>
       </c>
       <c r="I3">
-        <v>0.524</v>
+        <v>0.694</v>
       </c>
       <c r="J3">
-        <v>0.601</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13913,16 +13904,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F4">
         <v>504</v>
@@ -13934,10 +13925,10 @@
         <v>2.301</v>
       </c>
       <c r="I4">
-        <v>0.77</v>
+        <v>0.829</v>
       </c>
       <c r="J4">
-        <v>0.442</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13945,16 +13936,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F5">
         <v>504</v>
@@ -13966,10 +13957,10 @@
         <v>-0.248</v>
       </c>
       <c r="I5">
-        <v>-0.083</v>
+        <v>-0.082</v>
       </c>
       <c r="J5">
-        <v>0.9340000000000001</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13977,16 +13968,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F6">
         <v>504</v>
@@ -13998,10 +13989,10 @@
         <v>-2.427</v>
       </c>
       <c r="I6">
-        <v>-0.794</v>
+        <v>-0.753</v>
       </c>
       <c r="J6">
-        <v>0.428</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14009,13 +14000,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E7" t="s">
         <v>221</v>
@@ -14030,10 +14021,10 @@
         <v>2.968</v>
       </c>
       <c r="I7">
-        <v>0.967</v>
+        <v>0.755</v>
       </c>
       <c r="J7">
-        <v>0.334</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14041,16 +14032,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D8" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E8" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F8">
         <v>504</v>
@@ -14059,13 +14050,13 @@
         <v>0.053</v>
       </c>
       <c r="H8">
-        <v>-0.737</v>
+        <v>-0.704</v>
       </c>
       <c r="I8">
-        <v>-0.835</v>
+        <v>-0.799</v>
       </c>
       <c r="J8">
-        <v>0.404</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14073,16 +14064,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D9" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F9">
         <v>504</v>
@@ -14094,10 +14085,10 @@
         <v>-0.678</v>
       </c>
       <c r="I9">
-        <v>-0.742</v>
+        <v>-1.025</v>
       </c>
       <c r="J9">
-        <v>0.459</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14105,16 +14096,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E10" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F10">
         <v>504</v>
@@ -14126,10 +14117,10 @@
         <v>-1.328</v>
       </c>
       <c r="I10">
-        <v>-1.256</v>
+        <v>-1.391</v>
       </c>
       <c r="J10">
-        <v>0.21</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14137,16 +14128,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C11" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F11">
         <v>504</v>
@@ -14158,10 +14149,10 @@
         <v>-0.72</v>
       </c>
       <c r="I11">
-        <v>-0.6860000000000001</v>
+        <v>-0.701</v>
       </c>
       <c r="J11">
-        <v>0.493</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14169,16 +14160,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C12" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F12">
         <v>504</v>
@@ -14190,10 +14181,10 @@
         <v>1.259</v>
       </c>
       <c r="I12">
-        <v>1.168</v>
+        <v>1.088</v>
       </c>
       <c r="J12">
-        <v>0.243</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14201,16 +14192,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D13" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E13" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F13">
         <v>504</v>
@@ -14222,10 +14213,10 @@
         <v>-0.893</v>
       </c>
       <c r="I13">
-        <v>-0.831</v>
+        <v>-0.614</v>
       </c>
       <c r="J13">
-        <v>0.406</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14233,16 +14224,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F14">
         <v>504</v>
@@ -14254,10 +14245,10 @@
         <v>0.005</v>
       </c>
       <c r="I14">
-        <v>0.275</v>
+        <v>0.326</v>
       </c>
       <c r="J14">
-        <v>0.784</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14265,16 +14256,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C15" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D15" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E15" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F15">
         <v>504</v>
@@ -14286,10 +14277,10 @@
         <v>0.016</v>
       </c>
       <c r="I15">
-        <v>0.95</v>
+        <v>0.838</v>
       </c>
       <c r="J15">
-        <v>0.343</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14297,16 +14288,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C16" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D16" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E16" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F16">
         <v>504</v>
@@ -14318,10 +14309,10 @@
         <v>-0.003</v>
       </c>
       <c r="I16">
-        <v>-0.162</v>
+        <v>-0.167</v>
       </c>
       <c r="J16">
-        <v>0.871</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14329,16 +14320,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D17" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E17" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F17">
         <v>504</v>
@@ -14350,10 +14341,10 @@
         <v>0.047</v>
       </c>
       <c r="I17">
-        <v>2.608</v>
+        <v>3.271</v>
       </c>
       <c r="J17">
-        <v>0.008999999999999999</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14361,16 +14352,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C18" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D18" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E18" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F18">
         <v>504</v>
@@ -14382,10 +14373,10 @@
         <v>0.025</v>
       </c>
       <c r="I18">
-        <v>1.345</v>
+        <v>1.808</v>
       </c>
       <c r="J18">
-        <v>0.179</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14393,16 +14384,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C19" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D19" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E19" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F19">
         <v>504</v>
@@ -14414,10 +14405,10 @@
         <v>0.015</v>
       </c>
       <c r="I19">
-        <v>0.823</v>
+        <v>0.847</v>
       </c>
       <c r="J19">
-        <v>0.411</v>
+        <v>0.397</v>
       </c>
     </row>
   </sheetData>
